--- a/results/mp/tinybert/home-spam/confidence/84/stop-words-topk-masking-0.15/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/84/stop-words-topk-masking-0.15/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="64">
   <si>
     <t>anchor score</t>
   </si>
@@ -55,79 +55,79 @@
     <t>excellent</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>wonderful</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
     <t>best</t>
   </si>
   <si>
+    <t>pleased</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>salad</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>awesome</t>
+  </si>
+  <si>
+    <t>loved</t>
+  </si>
+  <si>
     <t>beautiful</t>
   </si>
   <si>
-    <t>pleased</t>
-  </si>
-  <si>
-    <t>awesome</t>
-  </si>
-  <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>salad</t>
+    <t>christmas</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
-    <t>glad</t>
+    <t>cake</t>
   </si>
   <si>
     <t>cakes</t>
   </si>
   <si>
-    <t>christmas</t>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>cooke</t>
+  </si>
+  <si>
+    <t>daughter</t>
+  </si>
+  <si>
+    <t>cheese</t>
   </si>
   <si>
     <t>wife</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
     <t>perfectly</t>
   </si>
   <si>
-    <t>daughter</t>
-  </si>
-  <si>
-    <t>cake</t>
-  </si>
-  <si>
     <t>sturdy</t>
   </si>
   <si>
-    <t>cooke</t>
-  </si>
-  <si>
-    <t>cheese</t>
-  </si>
-  <si>
-    <t>family</t>
+    <t>bread</t>
+  </si>
+  <si>
+    <t>gift</t>
   </si>
   <si>
     <t>ever</t>
   </si>
   <si>
-    <t>bread</t>
-  </si>
-  <si>
-    <t>gift</t>
+    <t>ze</t>
   </si>
   <si>
     <t>nice</t>
@@ -136,64 +136,70 @@
     <t>years</t>
   </si>
   <si>
+    <t>old</t>
+  </si>
+  <si>
     <t>easy</t>
   </si>
   <si>
+    <t>kitchen</t>
+  </si>
+  <si>
+    <t>tea</t>
+  </si>
+  <si>
     <t>cooking</t>
   </si>
   <si>
-    <t>old</t>
-  </si>
-  <si>
-    <t>tea</t>
-  </si>
-  <si>
-    <t>kitchen</t>
+    <t>keeps</t>
   </si>
   <si>
     <t>good</t>
   </si>
   <si>
+    <t>works</t>
+  </si>
+  <si>
     <t>well</t>
   </si>
   <si>
-    <t>keeps</t>
+    <t>every</t>
   </si>
   <si>
     <t>pan</t>
   </si>
   <si>
-    <t>works</t>
+    <t>coffee</t>
   </si>
   <si>
     <t>recommend</t>
   </si>
   <si>
-    <t>hot</t>
+    <t>makes</t>
   </si>
   <si>
     <t>clean</t>
   </si>
   <si>
-    <t>coffee</t>
-  </si>
-  <si>
-    <t>makes</t>
-  </si>
-  <si>
     <t>quality</t>
   </si>
   <si>
     <t>bought</t>
   </si>
   <si>
+    <t>make</t>
+  </si>
+  <si>
     <t>little</t>
   </si>
   <si>
+    <t>like</t>
+  </si>
+  <si>
     <t>one</t>
   </si>
   <si>
-    <t>like</t>
+    <t>time</t>
   </si>
   <si>
     <t>use</t>
@@ -557,7 +563,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q52"/>
+  <dimension ref="A1:Q54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -568,7 +574,7 @@
         <v>10</v>
       </c>
       <c r="J1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -626,13 +632,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.3333333333333333</v>
+        <v>0.3953488372093023</v>
       </c>
       <c r="C3">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="D3">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -644,19 +650,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="K3">
-        <v>0.956989247311828</v>
+        <v>0.9247311827956989</v>
       </c>
       <c r="L3">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="M3">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -668,7 +674,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -676,13 +682,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.303030303030303</v>
+        <v>0.3737373737373738</v>
       </c>
       <c r="C4">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D4">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -694,19 +700,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K4">
-        <v>0.90625</v>
+        <v>0.9140625</v>
       </c>
       <c r="L4">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M4">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -718,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -726,13 +732,13 @@
         <v>13</v>
       </c>
       <c r="K5">
-        <v>0.8695652173913043</v>
+        <v>0.8653250773993808</v>
       </c>
       <c r="L5">
-        <v>60</v>
+        <v>559</v>
       </c>
       <c r="M5">
-        <v>60</v>
+        <v>559</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -744,7 +750,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>9</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -752,13 +758,13 @@
         <v>14</v>
       </c>
       <c r="K6">
-        <v>0.8668730650154799</v>
+        <v>0.8405797101449275</v>
       </c>
       <c r="L6">
-        <v>560</v>
+        <v>58</v>
       </c>
       <c r="M6">
-        <v>560</v>
+        <v>58</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -770,7 +776,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>86</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -778,13 +784,13 @@
         <v>15</v>
       </c>
       <c r="K7">
-        <v>0.7359307359307359</v>
+        <v>0.7316017316017316</v>
       </c>
       <c r="L7">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="M7">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -796,7 +802,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -807,10 +813,10 @@
         <v>0.7272727272727273</v>
       </c>
       <c r="L8">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="M8">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -822,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -830,13 +836,13 @@
         <v>17</v>
       </c>
       <c r="K9">
-        <v>0.7142857142857143</v>
+        <v>0.7111111111111111</v>
       </c>
       <c r="L9">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="M9">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -848,7 +854,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -856,13 +862,13 @@
         <v>18</v>
       </c>
       <c r="K10">
-        <v>0.6956521739130435</v>
+        <v>0.6986301369863014</v>
       </c>
       <c r="L10">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="M10">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -874,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -882,13 +888,13 @@
         <v>19</v>
       </c>
       <c r="K11">
-        <v>0.6711864406779661</v>
+        <v>0.6915254237288135</v>
       </c>
       <c r="L11">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="M11">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -900,7 +906,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -908,13 +914,13 @@
         <v>20</v>
       </c>
       <c r="K12">
-        <v>0.6619718309859155</v>
+        <v>0.6739130434782609</v>
       </c>
       <c r="L12">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="M12">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -926,7 +932,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -934,13 +940,13 @@
         <v>21</v>
       </c>
       <c r="K13">
-        <v>0.6575342465753424</v>
+        <v>0.6619718309859155</v>
       </c>
       <c r="L13">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M13">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -952,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -960,13 +966,13 @@
         <v>22</v>
       </c>
       <c r="K14">
-        <v>0.6276083467094703</v>
+        <v>0.6590909090909091</v>
       </c>
       <c r="L14">
-        <v>782</v>
+        <v>29</v>
       </c>
       <c r="M14">
-        <v>782</v>
+        <v>29</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -978,7 +984,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>464</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -986,13 +992,13 @@
         <v>23</v>
       </c>
       <c r="K15">
-        <v>0.625</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="L15">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="M15">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1004,7 +1010,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1012,13 +1018,13 @@
         <v>24</v>
       </c>
       <c r="K16">
-        <v>0.609375</v>
+        <v>0.630016051364366</v>
       </c>
       <c r="L16">
-        <v>39</v>
+        <v>785</v>
       </c>
       <c r="M16">
-        <v>39</v>
+        <v>785</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1030,7 +1036,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>25</v>
+        <v>461</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1038,13 +1044,13 @@
         <v>25</v>
       </c>
       <c r="K17">
-        <v>0.6029411764705882</v>
+        <v>0.5576923076923077</v>
       </c>
       <c r="L17">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="M17">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1056,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>27</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1064,13 +1070,13 @@
         <v>26</v>
       </c>
       <c r="K18">
-        <v>0.5972222222222222</v>
+        <v>0.546875</v>
       </c>
       <c r="L18">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="M18">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1090,13 +1096,13 @@
         <v>27</v>
       </c>
       <c r="K19">
-        <v>0.5828571428571429</v>
+        <v>0.5314285714285715</v>
       </c>
       <c r="L19">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="M19">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1108,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>73</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1116,13 +1122,13 @@
         <v>28</v>
       </c>
       <c r="K20">
-        <v>0.5657894736842105</v>
+        <v>0.5299145299145299</v>
       </c>
       <c r="L20">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="M20">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1134,7 +1140,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>33</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1142,13 +1148,13 @@
         <v>29</v>
       </c>
       <c r="K21">
-        <v>0.5571428571428572</v>
+        <v>0.5285714285714286</v>
       </c>
       <c r="L21">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M21">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1160,7 +1166,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1168,13 +1174,13 @@
         <v>30</v>
       </c>
       <c r="K22">
-        <v>0.5384615384615384</v>
+        <v>0.5060240963855421</v>
       </c>
       <c r="L22">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="M22">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1186,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1194,13 +1200,13 @@
         <v>31</v>
       </c>
       <c r="K23">
-        <v>0.5089820359281437</v>
+        <v>0.5</v>
       </c>
       <c r="L23">
-        <v>85</v>
+        <v>36</v>
       </c>
       <c r="M23">
-        <v>85</v>
+        <v>36</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1212,7 +1218,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>82</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1220,13 +1226,13 @@
         <v>32</v>
       </c>
       <c r="K24">
-        <v>0.4957264957264957</v>
+        <v>0.5</v>
       </c>
       <c r="L24">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="M24">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1238,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>59</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1246,13 +1252,13 @@
         <v>33</v>
       </c>
       <c r="K25">
-        <v>0.4939759036144578</v>
+        <v>0.4970059880239521</v>
       </c>
       <c r="L25">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="M25">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1264,7 +1270,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>42</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1272,13 +1278,13 @@
         <v>34</v>
       </c>
       <c r="K26">
-        <v>0.4615384615384616</v>
+        <v>0.46</v>
       </c>
       <c r="L26">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="M26">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1290,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>35</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1298,13 +1304,13 @@
         <v>35</v>
       </c>
       <c r="K27">
-        <v>0.4285714285714285</v>
+        <v>0.4337349397590362</v>
       </c>
       <c r="L27">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="M27">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1316,7 +1322,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>76</v>
+        <v>94</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1324,13 +1330,13 @@
         <v>36</v>
       </c>
       <c r="K28">
-        <v>0.41</v>
+        <v>0.3909774436090225</v>
       </c>
       <c r="L28">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="M28">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1342,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>59</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1350,13 +1356,13 @@
         <v>37</v>
       </c>
       <c r="K29">
-        <v>0.3915662650602409</v>
+        <v>0.382716049382716</v>
       </c>
       <c r="L29">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="M29">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1368,7 +1374,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>101</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1376,13 +1382,13 @@
         <v>38</v>
       </c>
       <c r="K30">
-        <v>0.3553921568627451</v>
+        <v>0.375</v>
       </c>
       <c r="L30">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="M30">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1394,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>263</v>
+        <v>255</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1402,13 +1408,13 @@
         <v>39</v>
       </c>
       <c r="K31">
-        <v>0.3424124513618677</v>
+        <v>0.3735408560311284</v>
       </c>
       <c r="L31">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="M31">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1420,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1428,13 +1434,13 @@
         <v>40</v>
       </c>
       <c r="K32">
-        <v>0.3273972602739726</v>
+        <v>0.3308270676691729</v>
       </c>
       <c r="L32">
-        <v>239</v>
+        <v>44</v>
       </c>
       <c r="M32">
-        <v>239</v>
+        <v>44</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1446,7 +1452,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>491</v>
+        <v>89</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1454,13 +1460,13 @@
         <v>41</v>
       </c>
       <c r="K33">
-        <v>0.3063063063063063</v>
+        <v>0.326027397260274</v>
       </c>
       <c r="L33">
-        <v>34</v>
+        <v>238</v>
       </c>
       <c r="M33">
-        <v>34</v>
+        <v>238</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1472,7 +1478,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>77</v>
+        <v>492</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1480,13 +1486,13 @@
         <v>42</v>
       </c>
       <c r="K34">
-        <v>0.2932330827067669</v>
+        <v>0.3014354066985646</v>
       </c>
       <c r="L34">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="M34">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1498,7 +1504,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>94</v>
+        <v>146</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1506,13 +1512,13 @@
         <v>43</v>
       </c>
       <c r="K35">
-        <v>0.2805755395683453</v>
+        <v>0.2949640287769784</v>
       </c>
       <c r="L35">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="M35">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1524,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1532,13 +1538,13 @@
         <v>44</v>
       </c>
       <c r="K36">
-        <v>0.2727272727272727</v>
+        <v>0.2792792792792793</v>
       </c>
       <c r="L36">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="M36">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1550,7 +1556,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>152</v>
+        <v>80</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1558,13 +1564,13 @@
         <v>45</v>
       </c>
       <c r="K37">
-        <v>0.2335844994617869</v>
+        <v>0.2781456953642384</v>
       </c>
       <c r="L37">
-        <v>217</v>
+        <v>42</v>
       </c>
       <c r="M37">
-        <v>217</v>
+        <v>42</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1576,7 +1582,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>712</v>
+        <v>109</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1584,13 +1590,13 @@
         <v>46</v>
       </c>
       <c r="K38">
-        <v>0.2033248081841432</v>
+        <v>0.2368137782561895</v>
       </c>
       <c r="L38">
-        <v>159</v>
+        <v>220</v>
       </c>
       <c r="M38">
-        <v>159</v>
+        <v>220</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1602,7 +1608,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>623</v>
+        <v>709</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -1610,13 +1616,13 @@
         <v>47</v>
       </c>
       <c r="K39">
-        <v>0.1986754966887417</v>
+        <v>0.1920529801324503</v>
       </c>
       <c r="L39">
-        <v>30</v>
+        <v>145</v>
       </c>
       <c r="M39">
-        <v>30</v>
+        <v>145</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1628,7 +1634,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>121</v>
+        <v>610</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -1636,13 +1642,13 @@
         <v>48</v>
       </c>
       <c r="K40">
-        <v>0.1943573667711599</v>
+        <v>0.1777493606138107</v>
       </c>
       <c r="L40">
-        <v>62</v>
+        <v>139</v>
       </c>
       <c r="M40">
-        <v>62</v>
+        <v>139</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1654,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>257</v>
+        <v>643</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -1662,13 +1668,13 @@
         <v>49</v>
       </c>
       <c r="K41">
-        <v>0.1880794701986755</v>
+        <v>0.1768292682926829</v>
       </c>
       <c r="L41">
-        <v>142</v>
+        <v>29</v>
       </c>
       <c r="M41">
-        <v>142</v>
+        <v>29</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1680,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>613</v>
+        <v>135</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -1688,25 +1694,25 @@
         <v>50</v>
       </c>
       <c r="K42">
-        <v>0.1571815718157182</v>
+        <v>0.1630094043887147</v>
       </c>
       <c r="L42">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="M42">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="N42">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O42">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q42">
-        <v>311</v>
+        <v>267</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -1714,13 +1720,13 @@
         <v>51</v>
       </c>
       <c r="K43">
-        <v>0.1218487394957983</v>
+        <v>0.1363636363636364</v>
       </c>
       <c r="L43">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="M43">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -1732,7 +1738,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>209</v>
+        <v>380</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -1740,25 +1746,25 @@
         <v>52</v>
       </c>
       <c r="K44">
-        <v>0.1184210526315789</v>
+        <v>0.1351351351351351</v>
       </c>
       <c r="L44">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="M44">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="N44">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O44">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q44">
-        <v>402</v>
+        <v>320</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -1766,13 +1772,13 @@
         <v>53</v>
       </c>
       <c r="K45">
-        <v>0.1181818181818182</v>
+        <v>0.1254612546125461</v>
       </c>
       <c r="L45">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="M45">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -1784,7 +1790,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>388</v>
+        <v>237</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -1792,13 +1798,13 @@
         <v>54</v>
       </c>
       <c r="K46">
-        <v>0.1180811808118081</v>
+        <v>0.1228070175438596</v>
       </c>
       <c r="L46">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="M46">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -1810,7 +1816,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>239</v>
+        <v>400</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -1818,13 +1824,13 @@
         <v>55</v>
       </c>
       <c r="K47">
-        <v>0.1145584725536993</v>
+        <v>0.1193317422434367</v>
       </c>
       <c r="L47">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M47">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -1836,7 +1842,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -1844,13 +1850,13 @@
         <v>56</v>
       </c>
       <c r="K48">
-        <v>0.1070559610705596</v>
+        <v>0.1167883211678832</v>
       </c>
       <c r="L48">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="M48">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -1862,7 +1868,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -1870,13 +1876,13 @@
         <v>57</v>
       </c>
       <c r="K49">
-        <v>0.1030927835051546</v>
+        <v>0.1074074074074074</v>
       </c>
       <c r="L49">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M49">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -1888,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>261</v>
+        <v>241</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -1896,25 +1902,25 @@
         <v>58</v>
       </c>
       <c r="K50">
-        <v>0.06909430438842204</v>
+        <v>0.1065292096219931</v>
       </c>
       <c r="L50">
-        <v>74</v>
+        <v>31</v>
       </c>
       <c r="M50">
-        <v>75</v>
+        <v>31</v>
       </c>
       <c r="N50">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O50">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q50">
-        <v>997</v>
+        <v>260</v>
       </c>
     </row>
     <row r="51" spans="10:17">
@@ -1922,13 +1928,13 @@
         <v>59</v>
       </c>
       <c r="K51">
-        <v>0.06599713055954089</v>
+        <v>0.06743185078909612</v>
       </c>
       <c r="L51">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M51">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N51">
         <v>0.98</v>
@@ -1940,7 +1946,7 @@
         <v>1</v>
       </c>
       <c r="Q51">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="52" spans="10:17">
@@ -1948,25 +1954,77 @@
         <v>60</v>
       </c>
       <c r="K52">
-        <v>0.0380952380952381</v>
+        <v>0.06629318394024276</v>
       </c>
       <c r="L52">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="M52">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="N52">
-        <v>0.96</v>
+        <v>0.99</v>
       </c>
       <c r="O52">
-        <v>0.04000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P52" t="b">
         <v>1</v>
       </c>
       <c r="Q52">
-        <v>1111</v>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="53" spans="10:17">
+      <c r="J53" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K53">
+        <v>0.05350553505535055</v>
+      </c>
+      <c r="L53">
+        <v>29</v>
+      </c>
+      <c r="M53">
+        <v>29</v>
+      </c>
+      <c r="N53">
+        <v>1</v>
+      </c>
+      <c r="O53">
+        <v>0</v>
+      </c>
+      <c r="P53" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="54" spans="10:17">
+      <c r="J54" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K54">
+        <v>0.03902862098872507</v>
+      </c>
+      <c r="L54">
+        <v>45</v>
+      </c>
+      <c r="M54">
+        <v>49</v>
+      </c>
+      <c r="N54">
+        <v>0.92</v>
+      </c>
+      <c r="O54">
+        <v>0.07999999999999996</v>
+      </c>
+      <c r="P54" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q54">
+        <v>1108</v>
       </c>
     </row>
   </sheetData>
